--- a/raw_data/louisville/uof_template_entry.xlsx
+++ b/raw_data/louisville/uof_template_entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltopper/use_of_force/raw_data/louisville/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68A874E-3D4C-C64B-BAFA-F99BB6757806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26258070-30F4-E846-9567-3AE5DBEE9000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{4BCA9FCE-CA01-B946-85C4-295EB9366370}"/>
+    <workbookView xWindow="1940" yWindow="1300" windowWidth="29560" windowHeight="21900" xr2:uid="{4BCA9FCE-CA01-B946-85C4-295EB9366370}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>Date of Occurrence</t>
   </si>
@@ -64,18 +64,6 @@
     <t>Citizen Gender</t>
   </si>
   <si>
-    <t xml:space="preserve">Incident Officer 1 </t>
-  </si>
-  <si>
-    <t>Incident Officer 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incident Officer 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incident Officer 6 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Resisting Arrest </t>
   </si>
   <si>
@@ -85,105 +73,21 @@
     <t xml:space="preserve">Yes </t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Alcohol Impaired</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Police Officer Michael Neal - 7262</t>
-  </si>
-  <si>
     <t>Page Start</t>
   </si>
   <si>
-    <t>Incident Officer 1 Force Info (Force Used; Force Effective; Region; Point of Contact | Force used; Force Effective; Region; Point of Contact | )</t>
-  </si>
-  <si>
-    <t>take down; yes; 4 ; 4 | verbal directions; no ; x; 1| hobble; yes; 11, 13; 2, 3</t>
-  </si>
-  <si>
-    <t>Police officer christopher maybody - 7261</t>
-  </si>
-  <si>
-    <t>Incident Officer 2 Force Info (Force Used; Force Effective; Region; Point of Contact | Force used; Force Effective; Region; Point of Contact | )</t>
-  </si>
-  <si>
-    <t>Incident Officer 4</t>
-  </si>
-  <si>
-    <t>Incident Officer 5</t>
-  </si>
-  <si>
-    <t>Incident Officer 7</t>
-  </si>
-  <si>
-    <t>Incident Officer 8</t>
-  </si>
-  <si>
-    <t>Incident Officer 9</t>
-  </si>
-  <si>
-    <t>Incident Officer 3 Force Info (Force Used; Force Effective; Region; Point of Contact | Force used; Force Effective; Region; Point of Contact | )</t>
-  </si>
-  <si>
-    <t>Incident Officer 4 Force Info (Force Used; Force Effective; Region; Point of Contact | Force used; Force Effective; Region; Point of Contact | )</t>
-  </si>
-  <si>
-    <t>Incident Officer 5 Force Info (Force Used; Force Effective; Region; Point of Contact | Force used; Force Effective; Region; Point of Contact | )</t>
-  </si>
-  <si>
-    <t>Incident Officer 6 Force Info (Force Used; Force Effective; Region; Point of Contact | Force used; Force Effective; Region; Point of Contact | )</t>
-  </si>
-  <si>
-    <t>Incident Officer 7 Force Info (Force Used; Force Effective; Region; Point of Contact | Force used; Force Effective; Region; Point of Contact | )</t>
-  </si>
-  <si>
-    <t>Incident Officer 8 Force Info (Force Used; Force Effective; Region; Point of Contact | Force used; Force Effective; Region; Point of Contact | )</t>
-  </si>
-  <si>
-    <t>Incident Officer 9 Force Info (Force Used; Force Effective; Region; Point of Contact | Force used; Force Effective; Region; Point of Contact | )</t>
-  </si>
-  <si>
-    <t>Hobble; yes; 11,13; 2,3 | Take down; yes; 6; 4 | verbal directions; no; x; 1</t>
-  </si>
-  <si>
-    <t>self initiated</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>Normal</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
     <t>male</t>
   </si>
   <si>
-    <t>Police Officer Christopher Mostek - 7340</t>
-  </si>
-  <si>
-    <t>verbal directions; no; NA; NA | empty hand control; no ; NA; NA| take down; yes; NA; NA| empty hand strikes; yes; C,E; 1,2</t>
-  </si>
-  <si>
-    <t>Police officer allan elder - 2098</t>
-  </si>
-  <si>
-    <t>verbal directions; no ; NA; NA | empty Hand controll; yes; NA; NA</t>
-  </si>
-  <si>
     <t>Non-compliance</t>
   </si>
   <si>
@@ -232,9 +136,6 @@
     <t xml:space="preserve">empty hand control; no | take down; no </t>
   </si>
   <si>
-    <t>payvand rakhshan 7451</t>
-  </si>
-  <si>
     <t>de-escalation techniuqes; no | empty hand control; no | empty hand strikes; no | empty hand control; no | verbal directions; no</t>
   </si>
   <si>
@@ -269,13 +170,70 @@
   </si>
   <si>
     <t xml:space="preserve">verbal directions;no | empty hand strikes; yes | take down; no </t>
+  </si>
+  <si>
+    <t>Incident Officer 1 Force Info (Force Used; Force Effective | Force used; Force Effective |... )</t>
+  </si>
+  <si>
+    <t>Incident Officer 1 (Name - Badge Number)</t>
+  </si>
+  <si>
+    <t>Incident Officer 2 (Name - Badge Number)</t>
+  </si>
+  <si>
+    <t>Incident Officer 3 (Name - Badge Number)</t>
+  </si>
+  <si>
+    <t>Incident Officer 4 (Name - Badge Number)</t>
+  </si>
+  <si>
+    <t>Incident Officer 5 (Name - Badge Number)</t>
+  </si>
+  <si>
+    <t>Incident Officer 6 (Name - Badge Number)</t>
+  </si>
+  <si>
+    <t>Incident Officer 7 (Name - Badge Number)</t>
+  </si>
+  <si>
+    <t>Incident Officer 8 (Name - Badge Number)</t>
+  </si>
+  <si>
+    <t>Incident Officer 9 (Name - Badge Number)</t>
+  </si>
+  <si>
+    <t>Incident Officer 2 Force Info  (Force Used; Force Effective | Force used; Force Effective |... )</t>
+  </si>
+  <si>
+    <t>Incident Officer 3 Force Info  (Force Used; Force Effective | Force used; Force Effective |... )</t>
+  </si>
+  <si>
+    <t>Incident Officer 4 Force Info  (Force Used; Force Effective | Force used; Force Effective |... )</t>
+  </si>
+  <si>
+    <t>Incident Officer 5 Force Info  (Force Used; Force Effective | Force used; Force Effective |... )</t>
+  </si>
+  <si>
+    <t>Incident Officer 6 Force Info (Force Used; Force Effective | Force used; Force Effective |... )</t>
+  </si>
+  <si>
+    <t>Incident Officer 7 Force Info  (Force Used; Force Effective | Force used; Force Effective |... )</t>
+  </si>
+  <si>
+    <t>Incident Officer 8 Force Info  (Force Used; Force Effective | Force used; Force Effective |... )</t>
+  </si>
+  <si>
+    <t>Incident Officer 9 Force Info  (Force Used; Force Effective | Force used; Force Effective |... )</t>
+  </si>
+  <si>
+    <t>payvand rakhshan - 7451</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -312,11 +270,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="CIDFont+F2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -338,15 +291,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -663,20 +614,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6A5F95-D7BE-6E4C-A69E-37B666794198}">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="7" max="7" width="10.83203125" style="8"/>
+    <col min="7" max="7" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -693,7 +644,7 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -706,348 +657,260 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="R1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="S1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="T1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="U1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="V1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="X1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="Z1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:28">
       <c r="A2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>42743</v>
+        <v>43102</v>
       </c>
       <c r="C2" s="4">
-        <v>6.5972222222222224E-2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="5" t="s">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" t="s">
         <v>24</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:28">
       <c r="A3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3">
-        <v>42737</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.1013888888888889</v>
+        <v>43103</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.3923611111111111</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>44</v>
+      <c r="J3" t="s">
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>48</v>
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3">
-        <v>43102</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.57361111111111118</v>
+        <v>43103</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.91527777777777775</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3">
-        <v>43103</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.3923611111111111</v>
+        <v>43104</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.30555555555555552</v>
       </c>
       <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
         <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3">
-        <v>43103</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.91527777777777775</v>
+        <v>43105</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.68819444444444444</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
       <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
         <v>44</v>
-      </c>
-      <c r="K6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3">
-        <v>43104</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.30555555555555552</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8">
-        <v>40</v>
-      </c>
-      <c r="B8" s="3">
-        <v>43105</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.68819444444444444</v>
-      </c>
-      <c r="D8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
